--- a/Module 14 - Substantive testing 3 Performing and concluding on substantive procedures.xlsx
+++ b/Module 14 - Substantive testing 3 Performing and concluding on substantive procedures.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="858" documentId="8_{B71B7162-5087-47AF-93A2-49158346BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8733EB5-FBDC-43CA-A297-12EC54036E94}"/>
+  <xr:revisionPtr revIDLastSave="869" documentId="8_{B71B7162-5087-47AF-93A2-49158346BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E472096-3EA9-4D7D-AF09-4E440574EE5B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="885" windowWidth="28800" windowHeight="14370" activeTab="1" xr2:uid="{A978D090-B181-4D19-9A6C-FD5F92B12617}"/>
+    <workbookView xWindow="16380" yWindow="2085" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A978D090-B181-4D19-9A6C-FD5F92B12617}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 14" sheetId="2" r:id="rId2"/>
     <sheet name="ACTY14.3" sheetId="3" r:id="rId3"/>
     <sheet name="ACTY14.4" sheetId="4" r:id="rId4"/>
-    <sheet name="ACTY14.6" sheetId="5" r:id="rId5"/>
-    <sheet name="ACTY14.7" sheetId="6" r:id="rId6"/>
+    <sheet name="ACTY14.5" sheetId="7" r:id="rId5"/>
+    <sheet name="ACTY14.6" sheetId="5" r:id="rId6"/>
+    <sheet name="ACTY14.7" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="370">
   <si>
     <t>Main</t>
   </si>
@@ -1209,6 +1210,153 @@
   </si>
   <si>
     <t>TBC the examples below</t>
+  </si>
+  <si>
+    <t>Activity 5: Stock count follow-up</t>
+  </si>
+  <si>
+    <t>Procedure: Agree test counts performed at the stock take and copies of client stock</t>
+  </si>
+  <si>
+    <t>count sheets to the detailed inventory listing and investigate all differences.</t>
+  </si>
+  <si>
+    <t>Findings:</t>
+  </si>
+  <si>
+    <t>• Item L787878: This item was included in the floor to sheet sample with a quantity</t>
+  </si>
+  <si>
+    <t>of 50 at the client’s receiving bay but has been omitted from the stock listing</t>
+  </si>
+  <si>
+    <t>• Item P786132: During the stock count a quantity of 1,051 was marked by the audit</t>
+  </si>
+  <si>
+    <t>junior which was a discrepancy from the client’s system. This was updated by the</t>
+  </si>
+  <si>
+    <t>client during the count and observed by the audit junior but a discrepancy of 36 is</t>
+  </si>
+  <si>
+    <t>noted between the quantity on the count sheet and the stock listing (1,015).</t>
+  </si>
+  <si>
+    <t>• Items X48964 and Y785264: The items were noted during the stock count as being</t>
+  </si>
+  <si>
+    <t>located in the receiving bay and packing bay respectively but are marked as the</t>
+  </si>
+  <si>
+    <t>warehouse on the stock listing.</t>
+  </si>
+  <si>
+    <t>• No issues noted with the remaining items</t>
+  </si>
+  <si>
+    <t>Procedure: Agree items identified as spoiled, slow-moving or obsolete during the</t>
+  </si>
+  <si>
+    <t>stock take to the final detailed inventory listing and ensure these have been identified</t>
+  </si>
+  <si>
+    <t>as such.</t>
+  </si>
+  <si>
+    <t>• Item K56456: It was noted during the count by the audit junior that 2 boxes of 10</t>
+  </si>
+  <si>
+    <t>(20 items) were water damaged. No indication of any damage or obsolescence is</t>
+  </si>
+  <si>
+    <t>marked on the stock listing.</t>
+  </si>
+  <si>
+    <t>• Item Y785264: It was noted this item was damaged at the stock count. The stock</t>
+  </si>
+  <si>
+    <t>listing identified these items as damaged.</t>
+  </si>
+  <si>
+    <t>• Item I754863: It was noted that this item was found at the back of the warehouse</t>
+  </si>
+  <si>
+    <t>and very dusty which may suggest the item is not often used. The item was marked</t>
+  </si>
+  <si>
+    <t>as ‘slow-moving’ on the stock listing.</t>
+  </si>
+  <si>
+    <t>• No other issues were noted in relation to the remaining items included in the count.</t>
+  </si>
+  <si>
+    <t>Follow-up procedures:</t>
+  </si>
+  <si>
+    <t>• All issues identified should be discussed with the client to understand the reason</t>
+  </si>
+  <si>
+    <t>that the differences have arisen.</t>
+  </si>
+  <si>
+    <t>• For item L787878 the goods received note and invoice should be obtained and</t>
+  </si>
+  <si>
+    <t>inspected, including reviewing the terms and conditions in relation to ownership</t>
+  </si>
+  <si>
+    <t>transfer between BB and the supplier to establish whether BB has the right to</t>
+  </si>
+  <si>
+    <t>recognise the stock items at the year end. It is possible that the item was received</t>
+  </si>
+  <si>
+    <t>on 31 March into the receiving bay but was not recorded onto the stock listing until</t>
+  </si>
+  <si>
+    <t>after this date.</t>
+  </si>
+  <si>
+    <t>• For item P786132 we should obtain the client’s stock count sheet to confirm the</t>
+  </si>
+  <si>
+    <t>quantity counted by the client at year end. If unresolved, a count could be performed</t>
+  </si>
+  <si>
+    <t>at today’s date and ‘rolled-backwards’ to establish the correct year-end position.</t>
+  </si>
+  <si>
+    <t>• Items X48964 and Y785264 do not result in a misstatement in relation to the</t>
+  </si>
+  <si>
+    <t>quantity or value of stock, but could be highlighted to management to make them</t>
+  </si>
+  <si>
+    <t>aware that the stock location per the system may not be accurate.</t>
+  </si>
+  <si>
+    <t>• Items I754863 and Y785264 should be traced to the stock provision to confirm</t>
+  </si>
+  <si>
+    <t>items are appropriately valued. These valuations should be discussed with the</t>
+  </si>
+  <si>
+    <t>client and traced to supporting documentation such as post-year-end sales invoices</t>
+  </si>
+  <si>
+    <t>or scrapping documentation if available</t>
+  </si>
+  <si>
+    <t>• Item K56456 should be discussed with the client to understand why this item has</t>
+  </si>
+  <si>
+    <t>not been marked as partially damaged. Further investigation may be required to</t>
+  </si>
+  <si>
+    <t>investigate the ability to sell these items in the future and therefore ascertain the</t>
+  </si>
+  <si>
+    <t>value of the damaged items.</t>
   </si>
 </sst>
 </file>
@@ -2035,6 +2183,55 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B174A928-75A6-3986-379B-759BEEE797C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="610914" y="190500"/>
+          <a:ext cx="3665483" cy="1937121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2646,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089D487C-6075-4AAB-B797-EC6995048286}">
   <dimension ref="A1:D360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L376" sqref="L376"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3918,7 +4115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA965480-2A0F-41D4-A548-89128631AAA2}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4412,6 +4609,284 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84707C3A-269B-48B3-8AAE-523E7394B358}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9B735A13-1FCF-4A45-B33C-566736295465}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70F078-1C88-4AE7-81FB-DD0EA14C7ABF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -4468,7 +4943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E92E11-483E-4D17-96BE-A6675EFECDC7}">
   <dimension ref="A1:D16"/>
   <sheetViews>

--- a/Module 14 - Substantive testing 3 Performing and concluding on substantive procedures.xlsx
+++ b/Module 14 - Substantive testing 3 Performing and concluding on substantive procedures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's Class notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's AD Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="869" documentId="8_{B71B7162-5087-47AF-93A2-49158346BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E472096-3EA9-4D7D-AF09-4E440574EE5B}"/>
+  <xr:revisionPtr revIDLastSave="875" documentId="8_{B71B7162-5087-47AF-93A2-49158346BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC87B3E-75C5-4DE4-A984-F68B07B8EB59}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="2085" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A978D090-B181-4D19-9A6C-FD5F92B12617}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{A978D090-B181-4D19-9A6C-FD5F92B12617}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="371">
   <si>
     <t>Main</t>
   </si>
@@ -1357,6 +1357,9 @@
   </si>
   <si>
     <t>value of the damaged items.</t>
+  </si>
+  <si>
+    <t>ACTY14.5</t>
   </si>
 </sst>
 </file>
@@ -2792,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B674EAB9-78D7-4611-8E5F-562864282A32}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,11 +2821,16 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2831,8 +2839,9 @@
     <hyperlink ref="B2" location="'Module 14'!A1" display="Module 14" xr:uid="{DDD4AAF7-D82B-40E8-953C-74163D1795AD}"/>
     <hyperlink ref="C2" location="ACTY14.3!A1" display="ACTY14.3" xr:uid="{51F246C8-2BD9-4A85-A51D-114E44627ACC}"/>
     <hyperlink ref="C3" location="ACTY14.4!A1" display="ACTY14.4" xr:uid="{5529D69B-EE4B-4B13-9579-C202A407D8BB}"/>
-    <hyperlink ref="C4" location="ACTY14.6!A1" display="ACTY14.6" xr:uid="{8BE55910-F049-4AF5-858B-6BFC119F8663}"/>
-    <hyperlink ref="C5" location="ACTY14.7!A1" display="ACTY14.7" xr:uid="{EEC00C7A-5700-44CA-9A04-BF8F15E9A46E}"/>
+    <hyperlink ref="C5" location="ACTY14.6!A1" display="ACTY14.6" xr:uid="{8BE55910-F049-4AF5-858B-6BFC119F8663}"/>
+    <hyperlink ref="C6" location="ACTY14.7!A1" display="ACTY14.7" xr:uid="{EEC00C7A-5700-44CA-9A04-BF8F15E9A46E}"/>
+    <hyperlink ref="C4" location="ACTY14.5!A1" display="ACTY14.5" xr:uid="{2906E291-0416-4DFE-B1F2-49242A0921BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2843,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089D487C-6075-4AAB-B797-EC6995048286}">
   <dimension ref="A1:D360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3774,7 +3783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176B3399-799A-4E61-8E2A-D43DC2700048}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4115,7 +4126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA965480-2A0F-41D4-A548-89128631AAA2}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4612,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84707C3A-269B-48B3-8AAE-523E7394B358}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4890,7 +4903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70F078-1C88-4AE7-81FB-DD0EA14C7ABF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4947,7 +4962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E92E11-483E-4D17-96BE-A6675EFECDC7}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
